--- a/Lab4 CPU/微程序地址转移逻辑自动生成(2019-4-22).xlsx
+++ b/Lab4 CPU/微程序地址转移逻辑自动生成(2019-4-22).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\百度云同步盘\0常用文件\J教学资料\实验mooc\计算机硬件系统设计\6.CPU设计实验\4.CPU设计实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenlongding/大学课程/组原/Lab-of-Computer-Organiziation/Lab4 CPU/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C16E66-4A58-F54D-BAD5-B34DCD3DD5CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="微程序地址入口表" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">地址逻辑自动生成!$A$1:$M$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">微程序地址入口表!$J$2:$M$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -88,11 +97,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,12 +114,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -118,6 +129,7 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -125,6 +137,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -132,6 +145,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -139,12 +153,14 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -152,12 +168,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,6 +183,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1200,7 +1219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1208,20 +1227,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
-    <col min="2" max="7" width="6.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="7" customWidth="1"/>
+    <col min="2" max="7" width="6.6640625" style="7" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="7" customWidth="1"/>
-    <col min="10" max="12" width="3.625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="7" customWidth="1"/>
+    <col min="10" max="12" width="3.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1259,7 @@
       <c r="L1" s="53"/>
       <c r="M1" s="54"/>
     </row>
-    <row r="2" spans="1:13" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="31" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="18" thickTop="1">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="16"/>
       <c r="B4" s="17">
         <v>1</v>
@@ -1341,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21">
@@ -1353,11 +1372,11 @@
       <c r="G5" s="21"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J5" s="10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="1"/>
@@ -1365,14 +1384,14 @@
       </c>
       <c r="L5" s="10">
         <f>IF(ISNUMBER($I5),IF(MOD($I5,4)/2&gt;=1,1,0),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1383,25 +1402,27 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" s="14" t="str">
+      <c r="I6" s="35">
+        <v>5</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L6" s="14" t="str">
+        <v>1</v>
+      </c>
+      <c r="L6" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M6" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1412,25 +1433,27 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="10" t="str">
+      <c r="I7" s="37">
+        <v>9</v>
+      </c>
+      <c r="J7" s="10">
         <f>IF(ISNUMBER($I7),IF(MOD($I7,16)/8&gt;=1,1,0),"")</f>
-        <v/>
-      </c>
-      <c r="K7" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M7" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1441,25 +1464,27 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" s="14" t="str">
+      <c r="I8" s="35">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" s="14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M8" s="15" t="str">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17">
       <c r="A9" s="20"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1470,25 +1495,27 @@
         <v>1</v>
       </c>
       <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K9" s="10" t="str">
+      <c r="I9" s="37">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L9" s="10" t="str">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M9" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1515,7 +1542,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1542,7 +1569,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="17">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1569,7 +1596,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="17">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1596,7 +1623,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="17">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1623,7 +1650,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1650,7 +1677,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1677,7 +1704,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1704,7 +1731,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="17">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1731,7 +1758,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1758,7 +1785,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1785,7 +1812,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="17" hidden="1">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1812,7 +1839,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="17" hidden="1">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1839,7 +1866,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="17" hidden="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1866,7 +1893,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="17" hidden="1">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1893,7 +1920,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="17" hidden="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -1920,7 +1947,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="17" hidden="1">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1947,7 +1974,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="17" hidden="1">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1974,7 +2001,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="17" hidden="1">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2001,7 +2028,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="17" hidden="1">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -2028,7 +2055,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="17" hidden="1">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2055,7 +2082,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="17" hidden="1">
       <c r="A31" s="20"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2082,7 +2109,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="17">
       <c r="A32" s="55" t="s">
         <v>0</v>
       </c>
@@ -2119,11 +2146,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态变化控制信号" prompt="决定状态机迁移，如无关填“X”，输入信号名默认为Cx，可自行更改为和logisim自动生成电路的输入信号标签名一致！" sqref="A32:A1048576 B33:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态输出" prompt="次态二进制表示，由前列10进制自动计算，不可修改" sqref="J21:M1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态10进制" prompt="次态10进制，方便大家输入，输入十进制后会自动计算二进制N3N2N1N0" sqref="I1:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态变化控制信号" prompt="决定状态机迁移，只填0或1，无关不填或填“X”，输入信号名默认为In#x，可自行更改为和logisim自动生成电路的输入信号标签名一致！" sqref="A1:H31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="入口地址二进制信息" prompt="入口地址二进制信息，由前列10进制自动计算，不可修改" sqref="J2:M20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态变化控制信号" prompt="决定状态机迁移，如无关填“X”，输入信号名默认为Cx，可自行更改为和logisim自动生成电路的输入信号标签名一致！" sqref="A32:A1048576 B33:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态输出" prompt="次态二进制表示，由前列10进制自动计算，不可修改" sqref="J21:M1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态10进制" prompt="次态10进制，方便大家输入，输入十进制后会自动计算二进制N3N2N1N0" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="状态变化控制信号" prompt="决定状态机迁移，只填0或1，无关不填或填“X”，输入信号名默认为In#x，可自行更改为和logisim自动生成电路的输入信号标签名一致！" sqref="A1:H31" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="入口地址二进制信息" prompt="入口地址二进制信息，由前列10进制自动计算，不可修改" sqref="J2:M20" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2131,28 +2158,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="4.625" customWidth="1"/>
-    <col min="8" max="8" width="4.625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" style="23" customWidth="1"/>
+    <col min="1" max="7" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="23" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="23" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="23" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="22" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="22" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="44" t="str">
         <f>微程序地址入口表!A2</f>
         <v>R_Type</v>
@@ -2205,7 +2232,7 @@
         <v>S0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16" thickTop="1">
       <c r="A2" s="24" t="str">
         <f>IF(微程序地址入口表!A3&lt;&gt;"",IF(微程序地址入口表!A3=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A3=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v>R_Type&amp;</v>
@@ -2259,7 +2286,7 @@
         <v>R_Type+</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="27" t="str">
         <f>IF(微程序地址入口表!A4&lt;&gt;"",IF(微程序地址入口表!A4=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A4=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2313,7 +2340,7 @@
         <v>ADDI+</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="27" t="str">
         <f>IF(微程序地址入口表!A5&lt;&gt;"",IF(微程序地址入口表!A5=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A5=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2352,7 +2379,7 @@
       </c>
       <c r="J4" s="2" t="str">
         <f>IF(微程序地址入口表!J5=1,$I4&amp;"+","")</f>
-        <v>LW+</v>
+        <v/>
       </c>
       <c r="K4" s="2" t="str">
         <f>IF(微程序地址入口表!K5=1,$I4&amp;"+","")</f>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="L4" s="2" t="str">
         <f>IF(微程序地址入口表!L5=1,$I4&amp;"+","")</f>
-        <v/>
+        <v>LW+</v>
       </c>
       <c r="M4" s="2" t="str">
         <f>IF(微程序地址入口表!M5=1,$I4&amp;"+","")</f>
-        <v>LW+</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="27" t="str">
         <f>IF(微程序地址入口表!A6&lt;&gt;"",IF(微程序地址入口表!A6=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A6=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2410,7 +2437,7 @@
       </c>
       <c r="K5" s="2" t="str">
         <f>IF(微程序地址入口表!K6=1,$I5&amp;"+","")</f>
-        <v/>
+        <v>SW+</v>
       </c>
       <c r="L5" s="2" t="str">
         <f>IF(微程序地址入口表!L6=1,$I5&amp;"+","")</f>
@@ -2418,10 +2445,10 @@
       </c>
       <c r="M5" s="2" t="str">
         <f>IF(微程序地址入口表!M6=1,$I5&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>SW+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="27" t="str">
         <f>IF(微程序地址入口表!A7&lt;&gt;"",IF(微程序地址入口表!A7=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A7=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2460,7 +2487,7 @@
       </c>
       <c r="J6" s="2" t="str">
         <f>IF(微程序地址入口表!J7=1,$I6&amp;"+","")</f>
-        <v/>
+        <v>BEQ+</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>IF(微程序地址入口表!K7=1,$I6&amp;"+","")</f>
@@ -2472,10 +2499,10 @@
       </c>
       <c r="M6" s="2" t="str">
         <f>IF(微程序地址入口表!M7=1,$I6&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>BEQ+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="27" t="str">
         <f>IF(微程序地址入口表!A8&lt;&gt;"",IF(微程序地址入口表!A8=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A8=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2514,7 +2541,7 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>IF(微程序地址入口表!J8=1,$I7&amp;"+","")</f>
-        <v/>
+        <v>BNE+</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>IF(微程序地址入口表!K8=1,$I7&amp;"+","")</f>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="L7" s="2" t="str">
         <f>IF(微程序地址入口表!L8=1,$I7&amp;"+","")</f>
-        <v/>
+        <v>BNE+</v>
       </c>
       <c r="M7" s="2" t="str">
         <f>IF(微程序地址入口表!M8=1,$I7&amp;"+","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="27" t="str">
         <f>IF(微程序地址入口表!A9&lt;&gt;"",IF(微程序地址入口表!A9=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A9=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2568,11 +2595,11 @@
       </c>
       <c r="J8" s="2" t="str">
         <f>IF(微程序地址入口表!J9=1,$I8&amp;"+","")</f>
-        <v/>
+        <v>SYSCALL+</v>
       </c>
       <c r="K8" s="2" t="str">
         <f>IF(微程序地址入口表!K9=1,$I8&amp;"+","")</f>
-        <v/>
+        <v>SYSCALL+</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>IF(微程序地址入口表!L9=1,$I8&amp;"+","")</f>
@@ -2580,10 +2607,10 @@
       </c>
       <c r="M8" s="2" t="str">
         <f>IF(微程序地址入口表!M9=1,$I8&amp;"+","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>SYSCALL+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="27" t="str">
         <f>IF(微程序地址入口表!A10&lt;&gt;"",IF(微程序地址入口表!A10=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A10=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2637,7 +2664,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="27" t="str">
         <f>IF(微程序地址入口表!A11&lt;&gt;"",IF(微程序地址入口表!A11=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A11=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2691,7 +2718,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="27" t="str">
         <f>IF(微程序地址入口表!A12&lt;&gt;"",IF(微程序地址入口表!A12=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A12=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2745,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16" thickBot="1">
       <c r="A12" s="27" t="str">
         <f>IF(微程序地址入口表!A13&lt;&gt;"",IF(微程序地址入口表!A13=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A13=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2799,7 +2826,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16" hidden="1" thickBot="1">
       <c r="A13" s="27" t="str">
         <f>IF(微程序地址入口表!A14&lt;&gt;"",IF(微程序地址入口表!A14=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A14=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2853,7 +2880,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16" hidden="1" thickBot="1">
       <c r="A14" s="27" t="str">
         <f>IF(微程序地址入口表!A15&lt;&gt;"",IF(微程序地址入口表!A15=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A15=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2907,7 +2934,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="27" t="str">
         <f>IF(微程序地址入口表!A16&lt;&gt;"",IF(微程序地址入口表!A16=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A16=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -2961,7 +2988,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="27" t="str">
         <f>IF(微程序地址入口表!A17&lt;&gt;"",IF(微程序地址入口表!A17=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A17=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3015,7 +3042,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="27" t="str">
         <f>IF(微程序地址入口表!A18&lt;&gt;"",IF(微程序地址入口表!A18=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A18=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3069,7 +3096,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="27" t="str">
         <f>IF(微程序地址入口表!A19&lt;&gt;"",IF(微程序地址入口表!A19=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A19=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3123,7 +3150,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="27" t="str">
         <f>IF(微程序地址入口表!A20&lt;&gt;"",IF(微程序地址入口表!A20=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A20=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3177,7 +3204,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" hidden="1" thickBot="1">
       <c r="A20" s="27" t="str">
         <f>IF(微程序地址入口表!A21&lt;&gt;"",IF(微程序地址入口表!A21=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A21=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3231,7 +3258,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="27" t="str">
         <f>IF(微程序地址入口表!A22&lt;&gt;"",IF(微程序地址入口表!A22=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A22=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3285,7 +3312,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" hidden="1">
       <c r="A22" s="27" t="str">
         <f>IF(微程序地址入口表!A23&lt;&gt;"",IF(微程序地址入口表!A23=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A23=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3339,7 +3366,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" hidden="1">
       <c r="A23" s="27" t="str">
         <f>IF(微程序地址入口表!A24&lt;&gt;"",IF(微程序地址入口表!A24=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A24=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3393,7 +3420,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" hidden="1">
       <c r="A24" s="27" t="str">
         <f>IF(微程序地址入口表!A25&lt;&gt;"",IF(微程序地址入口表!A25=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A25=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3447,7 +3474,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" hidden="1">
       <c r="A25" s="27" t="str">
         <f>IF(微程序地址入口表!A26&lt;&gt;"",IF(微程序地址入口表!A26=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A26=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3501,7 +3528,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" hidden="1">
       <c r="A26" s="27" t="str">
         <f>IF(微程序地址入口表!A27&lt;&gt;"",IF(微程序地址入口表!A27=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A27=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3555,7 +3582,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" hidden="1">
       <c r="A27" s="27" t="str">
         <f>IF(微程序地址入口表!A28&lt;&gt;"",IF(微程序地址入口表!A28=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A28=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3609,7 +3636,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" hidden="1">
       <c r="A28" s="27" t="str">
         <f>IF(微程序地址入口表!A29&lt;&gt;"",IF(微程序地址入口表!A29=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A29=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3663,7 +3690,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" hidden="1">
       <c r="A29" s="27" t="str">
         <f>IF(微程序地址入口表!A30&lt;&gt;"",IF(微程序地址入口表!A30=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A30=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3717,7 +3744,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="16" hidden="1" thickBot="1">
       <c r="A30" s="27" t="str">
         <f>IF(微程序地址入口表!A31&lt;&gt;"",IF(微程序地址入口表!A31=1,微程序地址入口表!A$2&amp;"&amp;",IF(微程序地址入口表!A31=0,"~"&amp;微程序地址入口表!A$2&amp;"&amp;","")),"")</f>
         <v/>
@@ -3771,7 +3798,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" thickBot="1">
       <c r="A31" s="56"/>
       <c r="B31" s="56"/>
       <c r="C31" s="56"/>
@@ -3783,22 +3810,22 @@
       <c r="I31" s="57"/>
       <c r="J31" s="47" t="str">
         <f>IF(LEN(J32)&gt;1,LEFT(J32,LEN(J32)-1),"")</f>
-        <v>ADDI+LW</v>
+        <v>ADDI+BEQ+BNE+SYSCALL</v>
       </c>
       <c r="K31" s="47" t="str">
         <f>IF(LEN(K32)&gt;1,LEFT(K32,LEN(K32)-1),"")</f>
-        <v>R_Type</v>
+        <v>R_Type+SW+SYSCALL</v>
       </c>
       <c r="L31" s="47" t="str">
         <f>IF(LEN(L32)&gt;1,LEFT(L32,LEN(L32)-1),"")</f>
-        <v>R_Type+ADDI</v>
+        <v>R_Type+ADDI+LW+BNE</v>
       </c>
       <c r="M31" s="48" t="str">
         <f>IF(LEN(M32)&gt;1,LEFT(M32,LEN(M32)-1),"")</f>
-        <v>R_Type+ADDI+LW</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>R_Type+ADDI+SW+BEQ+SYSCALL</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" hidden="1" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
@@ -3810,27 +3837,27 @@
       <c r="I32" s="32"/>
       <c r="J32" s="4" t="str">
         <f>CONCATENATE(J2,J3,J4,J5,J6,J7,J8,J9,J10,J11,J12,J13,J14,J15,J16,J17,J18,J19,J20,J21,J22,J23,J24,J25,J26,J27,J28,J29,J30)</f>
-        <v>ADDI+LW+</v>
+        <v>ADDI+BEQ+BNE+SYSCALL+</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" ref="K32:M32" si="1">CONCATENATE(K2,K3,K4,K5,K6,K7,K8,K9,K10,K11,K12,K13,K14,K15,K16,K17,K18,K19,K20,K21,K22,K23,K24,K25,K26,K27,K28,K29,K30)</f>
-        <v>R_Type+</v>
+        <v>R_Type+SW+SYSCALL+</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" ref="L32" si="2">CONCATENATE(L2,L3,L4,L5,L6,L7,L8,L9,L10,L11,L12,L13,L14,L15,L16,L17,L18,L19,L20,L21,L22,L23,L24,L25,L26,L27,L28,L29,L30)</f>
-        <v>R_Type+ADDI+</v>
+        <v>R_Type+ADDI+LW+BNE+</v>
       </c>
       <c r="M32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>R_Type+ADDI+LW+</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+        <v>R_Type+ADDI+SW+BEQ+SYSCALL+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="17">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="I35" s="33"/>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="17">
       <c r="K36" s="5" t="s">
         <v>2</v>
       </c>
@@ -3851,9 +3878,9 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位表达式" prompt="次态状态位逻辑表达式，复制到Logisim即可" sqref="J31:M31"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="M32:M34 M37:M1048576 J32:L1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位生成条件最小项" sqref="J1:M30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位表达式" prompt="次态状态位逻辑表达式，复制到Logisim即可" sqref="J31:M31" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位逻辑表达式生成" sqref="M32:M34 M37:M1048576 J32:L1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="次态状态位" prompt="次态状态位生成条件最小项" sqref="J1:M30" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
